--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Learning\LeetCode-Javascript-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B92163C-3C96-4593-BD8D-741E674EF0DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903B8DF-9399-4E40-89C5-D31676DD389A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Maximum SubArray</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Leetcode - 51</t>
   </si>
@@ -40,6 +37,18 @@
   </si>
   <si>
     <t>Leetcode - 718</t>
+  </si>
+  <si>
+    <t>DP on Matrix</t>
+  </si>
+  <si>
+    <t>Leetcode - 200</t>
+  </si>
+  <si>
+    <t>Leetcode - 221</t>
+  </si>
+  <si>
+    <t>Maximum/Minimum SubArray</t>
   </si>
 </sst>
 </file>
@@ -366,37 +375,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Learning\LeetCode-Javascript-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903B8DF-9399-4E40-89C5-D31676DD389A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EAA468-351E-4157-8807-B1817C6B6E3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Leetcode - 51</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>Maximum/Minimum SubArray</t>
+  </si>
+  <si>
+    <t>House Robber Pattern</t>
+  </si>
+  <si>
+    <t>Leetcode - 198</t>
+  </si>
+  <si>
+    <t>Leetcode - 740</t>
+  </si>
+  <si>
+    <t>Stock Graph Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leetcode - 45 </t>
   </si>
 </sst>
 </file>
@@ -375,20 +390,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -398,8 +415,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -409,13 +432,22 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Learning\LeetCode-Javascript-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EAA468-351E-4157-8807-B1817C6B6E3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CADFD6-6BEF-4E5D-8DDB-2109BAB15DA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Leetcode - 51</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t xml:space="preserve">Leetcode - 45 </t>
+  </si>
+  <si>
+    <t>Unbounded KnapSack</t>
+  </si>
+  <si>
+    <t>Leetcode - 519</t>
+  </si>
+  <si>
+    <t>Leetcode - 322</t>
+  </si>
+  <si>
+    <t>LeetCode - 935</t>
+  </si>
+  <si>
+    <t>KeyPad Numeric</t>
   </si>
 </sst>
 </file>
@@ -390,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,9 +418,11 @@
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -421,8 +438,11 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -438,8 +458,11 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -448,6 +471,19 @@
       </c>
       <c r="G3" t="s">
         <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Learning\LeetCode-Javascript-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CADFD6-6BEF-4E5D-8DDB-2109BAB15DA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006FD4D4-6AC0-464E-B579-9FE6970DB59C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3492" yWindow="5112" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Leetcode - 51</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>KeyPad Numeric</t>
+  </si>
+  <si>
+    <t>Leetcode - 1277</t>
+  </si>
+  <si>
+    <t>Leetcode - 55</t>
   </si>
 </sst>
 </file>
@@ -408,14 +414,14 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
@@ -472,8 +478,16 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
       <c r="K3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">

--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Learning\LeetCode-Javascript-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006FD4D4-6AC0-464E-B579-9FE6970DB59C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A1B07B-A21D-4704-AE64-C8DC968BC435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="5112" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Leetcode - 51</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Leetcode - 55</t>
+  </si>
+  <si>
+    <t>Leetcode - 542</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,6 +493,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>

--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Learning\LeetCode-Javascript-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A1B07B-A21D-4704-AE64-C8DC968BC435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F08000-4916-4173-93E6-5CB349742C64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Leetcode - 51</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Leetcode - 542</t>
+  </si>
+  <si>
+    <t>Pallindrome</t>
+  </si>
+  <si>
+    <t>Leetcode - 5</t>
+  </si>
+  <si>
+    <t>Leetcode - 647</t>
   </si>
 </sst>
 </file>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,10 +511,21 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Learning\LeetCode-Javascript-Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F08000-4916-4173-93E6-5CB349742C64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8F76B-96D5-407E-9C58-71B8CB23B50C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Leetcode - 51</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Leetcode - 647</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Leetcode - 787</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,6 +520,9 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -521,6 +530,9 @@
       </c>
       <c r="C8" t="s">
         <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
